--- a/resources/tools/wordlist_E-J/lessons/lesson-13.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-13.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,684 +436,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>to knit</t>
+          <t>waiter</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>編む|あむ</t>
+          <t>ウエイター</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>to lend; to rent</t>
+          <t>(someone's) house/home</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>貸す|かす</t>
+          <t>お宅|おたく</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>to do one's best; to try hard</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>頑張る|がんばる</t>
+          <t>大人|おとな</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>to cry</t>
+          <t>foreign language</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>泣く|なく</t>
+          <t>外国語|がいこくご</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>to brush (teeth); to polish</t>
+          <t>musical instrument</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>磨く|みがく</t>
+          <t>楽器|がっき</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>to keep a promise</t>
+          <t>karate</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>約束を守る|やくそくをまもる</t>
+          <t>空手|からて</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>to be moved/touched (by...)</t>
+          <t>curry</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>感動する|かんどうする</t>
+          <t>カレー</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>I would like to open an account.</t>
+          <t>kimono; Japanese traditional dress</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>口座を開きたいんですが。|こうざをひらきたいんですが。</t>
+          <t>着物|きもの</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>I would like to close an account.</t>
+          <t>advertisement</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>口座を閉じたいんですが。|こうざをとじたいんですが。</t>
+          <t>広告|こうこく</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Please change dollars into yen.</t>
+          <t>tea (black tea)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ドルを円にかえてください。|ドルを円にかえてください。</t>
+          <t>紅茶|こうちゃ</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>I would like to deposit money into the account.</t>
+          <t>language</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>口座にお金を振り込みたいんですが。|こうざにおかねをふりこみたいんですが。</t>
+          <t>言葉|ことば</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Can you change a 10,000-yen bill into ten 1,000-yen bills?</t>
+          <t>golf</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>一万円札を千円札十枚に両替できますか。|いちまんえんさつをせんえんさつじゅうまいにりょうがえできますか。</t>
+          <t>ゴルフ</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>I will withdraw money.</t>
+          <t>sweater</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>お金をおろします。|おかねをおろします。</t>
+          <t>セーター</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sweater</t>
+          <t>elephant</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>セーター</t>
+          <t>象|ぞう</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>violin</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>象|ぞう</t>
+          <t>バイオリン</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>violin</t>
+          <t>motorcycle</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>バイオリン</t>
+          <t>バイク</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>motorcycle</t>
+          <t>(consumer) prices</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>バイク</t>
+          <t>物価|ぶっか</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>(consumer) prices</t>
+          <t>grammar</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>物価|ぶっか</t>
+          <t>文法|ぶんぽう</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>grammar</t>
+          <t>lawyer</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>文法|ぶんぽう</t>
+          <t>弁護士|べんごし</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>lawyer</t>
+          <t>recruitment</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>弁護士|べんごし</t>
+          <t>募集|ぼしゅう</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>recruitment</t>
+          <t>shop; store</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>募集|ぼしゅう</t>
+          <t>店|みせ</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>shop; store</t>
+          <t>yakuza; gangster</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>店|みせ</t>
+          <t>やくざ</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>yakuza; gangster</t>
+          <t>promise; appointment</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>やくざ</t>
+          <t>約束|やくそく</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>promise; appointment</t>
+          <t>(term) paper</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>約束|やくそく</t>
+          <t>レポート</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>(term) paper</t>
+          <t>I (formal)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>レポート</t>
+          <t>私|わたくし</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>I (formal)</t>
+          <t>glad</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>私|わたくし</t>
+          <t>うれしい</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>one day</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>一日|いちにち</t>
+          <t>悲しい|かなしい</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>two days</t>
+          <t>hot and spicy; salty</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>二日|ふつか</t>
+          <t>辛い|からい</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>three days</t>
+          <t>strict</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>三日|みっか</t>
+          <t>厳しい|きびしい</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>four days</t>
+          <t>incredible; awesome</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>四日|よっか</t>
+          <t>すごい</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>five days</t>
+          <t>close; near</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>五日|いつか</t>
+          <t>近い|ちかい</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>six days</t>
+          <t>various; different kinds of</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>六日|むいか</t>
+          <t>いろいろ（な）</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>seven days</t>
+          <t>happy (lasting happiness)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>七日|なのか</t>
+          <t>幸せ|しあわせ（な）</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>eight days</t>
+          <t>no good</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>八日|ようか</t>
+          <t>だめ（な）</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>nine days</t>
+          <t>to knit</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>九日|ここのか</t>
+          <t>編む|あむ</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ten days</t>
+          <t>to lend; to rent</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>十日|とおか</t>
+          <t>貸す|かす</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>waiter</t>
+          <t>to do one's best; to try hard</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ウエイター</t>
+          <t>頑張る|がんばる</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>(someone's) house/home</t>
+          <t>to cry</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>お宅|おたく</t>
+          <t>泣く|なく</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>to brush (teeth); to polish</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>大人|おとな</t>
+          <t>磨く|みがく</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>foreign language</t>
+          <t>to keep a promise</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>外国語|がいこくご</t>
+          <t>約束を守る|やくそくをまもる</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>musical instrument</t>
+          <t>to be moved/touched (by...)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>楽器|がっき</t>
+          <t>感動する|かんどうする</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>karate</t>
+          <t>someone honorable is present/home</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>空手|からて</t>
+          <t>いらっしゃいませ</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>curry</t>
+          <t>...times</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>カレー</t>
+          <t>～回|～かい</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>kimono; Japanese traditional dress</t>
+          <t>...kilometers; ...kilograms</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>着物|きもの</t>
+          <t>～キロ</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>advertisement</t>
+          <t>as a matter of fact,...</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>広告|こうこく</t>
+          <t>実は|じつは</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>tea (black tea)</t>
+          <t>all</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>紅茶|こうちゃ</t>
+          <t>全部|ぜんぶ</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>my name is...</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>言葉|ことば</t>
+          <t>～と申します|～ともうします</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>golf</t>
+          <t>one day</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ゴルフ</t>
+          <t>一日|いちにち</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>glad</t>
+          <t>two days</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>うれしい</t>
+          <t>二日|ふつか</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>three days</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>悲しい|かなしい</t>
+          <t>三日|みっか</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>hot and spicy; salty</t>
+          <t>four days</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>辛い|からい</t>
+          <t>四日|よっか</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>strict</t>
+          <t>five days</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>厳しい|きびしい</t>
+          <t>五日|いつか</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>incredible; awesome</t>
+          <t>six days</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>すごい</t>
+          <t>六日|むいか</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>close; near</t>
+          <t>seven days</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>近い|ちかい</t>
+          <t>七日|なのか</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>various; different kinds of</t>
+          <t>eight days</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>いろいろ（な）</t>
+          <t>八日|ようか</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>happy (lasting happiness)</t>
+          <t>nine days</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>幸せ|しあわせ（な）</t>
+          <t>九日|ここのか</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>no good</t>
+          <t>ten days</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>だめ（な）</t>
+          <t>十日|とおか</t>
         </is>
       </c>
     </row>
@@ -1220,844 +1288,844 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>someone honorable is present/home</t>
+          <t>I would like to open an account.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>いらっしゃいませ</t>
+          <t>口座を開きたいんですが。|こうざをひらきたいんですが。</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>...times</t>
+          <t>I would like to close an account.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>～回|～かい</t>
+          <t>口座を閉じたいんですが。|こうざをとじたいんですが。</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>...kilometers; ...kilograms</t>
+          <t>Please change dollars into yen.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>～キロ</t>
+          <t>ドルを円にかえてください。|ドルを円にかえてください。</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>as a matter of fact,...</t>
+          <t>I would like to deposit money into the account.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>実は|じつは</t>
+          <t>口座にお金を振り込みたいんですが。|こうざにおかねをふりこみたいんですが。</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Can you change a 10,000-yen bill into ten 1,000-yen bills?</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>全部|ぜんぶ</t>
+          <t>一万円札を千円札十枚に両替できますか。|いちまんえんさつをせんえんさつじゅうまいにりょうがえできますか。</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>my name is...</t>
+          <t>I will withdraw money.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>～と申します|～ともうします</t>
+          <t>お金をおろします。|おかねをおろします。</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>rice; meal</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ご飯|ごはん</t>
+          <t>食べ物|たべもの</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>breakfast</t>
+          <t>drink</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>朝ご飯|あさごはん</t>
+          <t>飲み物|のみもの</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>dinner</t>
+          <t>things</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>晩ご飯|ばんごはん</t>
+          <t>物|もの</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>meat</t>
+          <t>shopping</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>肉|にく</t>
+          <t>買い物|かいもの</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>beef</t>
+          <t>animal</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>牛肉|ぎゅうにく</t>
+          <t>動物|どうぶつ</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>pork</t>
+          <t>bird</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>豚肉|ぶたにく</t>
+          <t>鳥|とり</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>meat shop</t>
+          <t>grilled chicken</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>肉屋|にくや</t>
+          <t>焼き鳥|やきとり</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>muscle</t>
+          <t>swan</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>筋肉|きんにく</t>
+          <t>白鳥|はくちょう</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>bad</t>
+          <t>cooking</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>悪い|わるい</t>
+          <t>料理|りょうり</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>to feel sick</t>
+          <t>charge</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>気分が悪い|きぶんがわるい</t>
+          <t>料金|りょうきん</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>the worst</t>
+          <t>tuition</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>最悪|さいあく</t>
+          <t>授業料|じゅぎょうりょう</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>devil</t>
+          <t>salary</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>悪魔|あくま</t>
+          <t>給料|きゅうりょう</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>to arrive</t>
+          <t>cooking</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>着く|つく</t>
+          <t>料理|りょうり</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>to wear</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>着る|きる</t>
+          <t>理由|りゆう</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>kimono</t>
+          <t>geography</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>着物|きもの</t>
+          <t>地理|ちり</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>arriving at Osaka</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>大阪着|おおさかちゃく</t>
+          <t>無理な|むりな</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>the same</t>
+          <t>especially</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>同じ|おなじ</t>
+          <t>特に|とくに</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>coworker</t>
+          <t>special</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>同僚|どうりょう</t>
+          <t>特別な|とくべつな</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>classmate</t>
+          <t>characteristic</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>同級生|どうきゅうせい</t>
+          <t>特徴|とくちょう</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>same time</t>
+          <t>super express</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>同時|どうじ</t>
+          <t>特急|とっきゅう</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>sea</t>
+          <t>cheap</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>海|うみ</t>
+          <t>安い|やすい</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>the Japan Sea</t>
+          <t>safe</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>日本海|にほんかい</t>
+          <t>安全な|あんぜんな</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>overseas</t>
+          <t>relief</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>海外|かいがい</t>
+          <t>安心|あんしん</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>uneasy</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>海岸|かいがん</t>
+          <t>不安な|ふあんな</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>noon</t>
+          <t>rice; meal</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>昼|ひる</t>
+          <t>ご飯|ごはん</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>lunch</t>
+          <t>breakfast</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>昼ご飯|ひるごはん</t>
+          <t>朝ご飯|あさごはん</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>nap</t>
+          <t>dinner</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>昼寝|ひるね</t>
+          <t>晩ご飯|ばんごはん</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>lunch break</t>
+          <t>meat</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>昼休み|ひるやすみ</t>
+          <t>肉|にく</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>lunch (formal)</t>
+          <t>beef</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>昼食|ちゅうしょく</t>
+          <t>牛肉|ぎゅうにく</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>pork</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>食べ物|たべもの</t>
+          <t>豚肉|ぶたにく</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>drink</t>
+          <t>meat shop</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>飲み物|のみもの</t>
+          <t>肉屋|にくや</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>things</t>
+          <t>muscle</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>物|もの</t>
+          <t>筋肉|きんにく</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>shopping</t>
+          <t>bad</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>買い物|かいもの</t>
+          <t>悪い|わるい</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>to feel sick</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>動物|どうぶつ</t>
+          <t>気分が悪い|きぶんがわるい</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>bird</t>
+          <t>the worst</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>鳥|とり</t>
+          <t>最悪|さいあく</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>grilled chicken</t>
+          <t>devil</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>焼き鳥|やきとり</t>
+          <t>悪魔|あくま</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>swan</t>
+          <t>body</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>白鳥|はくちょう</t>
+          <t>体|からだ</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>cooking</t>
+          <t>body weight</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>料理|りょうり</t>
+          <t>体重|たいじゅう</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>charge</t>
+          <t>gymnastics; physical exercises</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>料金|りょうきん</t>
+          <t>体操|たいそう</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>tuition</t>
+          <t>airport</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>授業料|じゅぎょうりょう</t>
+          <t>空港|くうこう</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>salary</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>給料|きゅうりょう</t>
+          <t>空気|くうき</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>body</t>
+          <t>sky</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>体|からだ</t>
+          <t>空|そら</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>body weight</t>
+          <t>to be vacant</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>体重|たいじゅう</t>
+          <t>空く|あく</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>gymnastics; physical exercises</t>
+          <t>karate</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>体操|たいそう</t>
+          <t>空手|からて</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>airport</t>
+          <t>Kobe Port</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>空港|くうこう</t>
+          <t>神戸港|こうべこう</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>port</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>空気|くうき</t>
+          <t>港|みなと</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>sky</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>空|そら</t>
+          <t>香港|ほんこん</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>to be vacant</t>
+          <t>to arrive</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>空く|あく</t>
+          <t>着く|つく</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>karate</t>
+          <t>to wear</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>空手|からて</t>
+          <t>着る|きる</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Kobe Port</t>
+          <t>kimono</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>神戸港|こうべこう</t>
+          <t>着物|きもの</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>arriving at Osaka</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>港|みなと</t>
+          <t>大阪着|おおさかちゃく</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>the same</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>香港|ほんこん</t>
+          <t>同じ|おなじ</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>cooking</t>
+          <t>coworker</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>料理|りょうり</t>
+          <t>同僚|どうりょう</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>classmate</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>理由|りゆう</t>
+          <t>同級生|どうきゅうせい</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>geography</t>
+          <t>same time</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>地理|ちり</t>
+          <t>同時|どうじ</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>sea</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>無理な|むりな</t>
+          <t>海|うみ</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>especially</t>
+          <t>the Japan Sea</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>特に|とくに</t>
+          <t>日本海|にほんかい</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>overseas</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>特別な|とくべつな</t>
+          <t>海外|かいがい</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>characteristic</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>特徴|とくちょう</t>
+          <t>海岸|かいがん</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>super express</t>
+          <t>noon</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>特急|とっきゅう</t>
+          <t>昼|ひる</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>cheap</t>
+          <t>lunch</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>安い|やすい</t>
+          <t>昼ご飯|ひるごはん</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>safe</t>
+          <t>nap</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>安全な|あんぜんな</t>
+          <t>昼寝|ひるね</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>relief</t>
+          <t>lunch break</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>安心|あんしん</t>
+          <t>昼休み|ひるやすみ</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>uneasy</t>
+          <t>lunch (formal)</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>不安な|ふあんな</t>
+          <t>昼食|ちゅうしょく</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-13.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-13.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2126,6 +2126,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>